--- a/2017/03_DetailDesign/20171011_Cong viec/OOF2112_Xem chi tiet cong viec.xlsx
+++ b/2017/03_DetailDesign/20171011_Cong viec/OOF2112_Xem chi tiet cong viec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_SVN\SVN_ERP90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\09.KIMYEN\20171011_Cong viec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\ERP90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\09.KIMYEN\20170921_Phrase 3_Quan ly cong viec\20171011_Cong viec\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9166F28A-4347-4CD5-9C27-8C5B1FEB1C16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15150" windowHeight="8640" tabRatio="816"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15150" windowHeight="8640" tabRatio="816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -30,20 +31,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$R$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item Screen'!$A$1:$P$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -265,12 +266,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -397,13 +398,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Le Thi Thu Hien</author>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0">
+    <comment ref="G4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -512,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="1" shapeId="0">
+    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -609,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -644,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -660,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="1" shapeId="0">
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -679,12 +680,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -697,10 +698,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text/>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -713,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -735,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -753,12 +754,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -784,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -802,13 +803,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -825,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -840,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -858,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -886,7 +887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -900,7 +901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="1" shapeId="0">
+    <comment ref="Q4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -929,13 +930,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -949,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -963,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -977,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -990,7 +991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1079,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0">
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1093,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0">
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1" shapeId="0">
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1118,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="1" shapeId="0">
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="1" shapeId="0">
+    <comment ref="A20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1152,13 +1153,13 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1186,7 +1187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1213,7 +1214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1227,7 +1228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1302,7 +1303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1851,12 +1852,6 @@
     <t>Trường hợp Click button [Xóa].</t>
   </si>
   <si>
-    <t>TMF2022</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
     <t>Xem chi tiết công việc</t>
   </si>
   <si>
@@ -1875,14 +1870,6 @@
     <t>Load màn hình Danh mục công việc</t>
   </si>
   <si>
-    <t>Login TM
--&gt; Nghiệp vụ
--&gt; Công việc
--&gt; Danh sách công việc (Dạng danh sách)
--&gt; Chọn vào link [Mã công việc] 
--&gt; Xem chi tiết công việc_TMF2022</t>
-  </si>
-  <si>
     <t>Mã công việc</t>
   </si>
   <si>
@@ -1992,14 +1979,6 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>Click btnEditWorkID 
-Truyền tham số @APK để gọi đến form TMF2021</t>
-  </si>
-  <si>
-    <t>Click btnDeleteWorkID 
-Truyền tham số @APK để gọi đến form TMF2020 dạng danh sách</t>
   </si>
   <si>
     <t>Thông tin công việc, Thông tin mô tả
@@ -2183,39 +2162,6 @@
     </r>
   </si>
   <si>
-    <t>Luồng 7: Xử lý load từng tab màn hình TMF2022</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Luồng 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Click button btnEditWorkID  [Sửa công việc]
-      + Truyền tham số @APK gọi đến màn hình TMF2021 sửa công việc
-      + Nhận tham số @APK từ màn hình TMF2021 truyền vào @SQL001 để load lại tab [Thông tin công việc], [Thông tin mô tả],  [Thông tin hệ thống ] và Xem luồng 4 load [Thông tin lịch sử]
-   </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">   + Khi màn hình TMF2022 load lên lần đầu: thì chỉ mở tab [Thông tin cơ hội], [Thông tin mô tả] và tab [Thông tin hệ thống],  tất cả các tab khác đóng và không load câu SQL</t>
-  </si>
-  <si>
-    <t>- Thực @SQL001,luồng 4, luồng 5, luồng 6: load dữ liệu các tab tương ứng trong form TMF2022</t>
-  </si>
-  <si>
     <t>Chức năng này cho phép load lên xem thông tin chi tiết của công việc</t>
   </si>
   <si>
@@ -2309,58 +2255,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">EXEC TMP2020  ( 
- @DivisionID nvarchar(480),
- @DivisionIDList NVARCHAR(MAX), 
- @FromDate Datetime,
- @ToDate Datetime,
- @WorkID nvarchar(480),
- @ProjectID nvarchar(480),
- @ProcessID nvarchar(480),
- @StepID nvarchar(480),
- @StatusID nvarchar(480),
- @ReviewerUserID nvarchar(480),
- @AssignedToUserID nvarchar(480),
- @Mode int,       --1: Kanban, 2: List, 3: Gantt, 4: Calendar
- @ConditionWorkID  NVARCHAR (MAX),
- @UserID  nvarchar(480),
- @PageNumber INT,
- @PageSize INT   ) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXEC TMP2021 ( 
- @DivisionID varchar(50),
- @APK NVARCHAR(MAX),
- @APKList NVARCHAR(MAX),
- @TableID NVARCHAR(MAX), --TMT2020
- @Mode tinyint,   --0: Sửa, 1: Xóa
- @UserID Varchar(50)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biến môi trường
-NULL
- @APK
- "TMT2020" 
-1
- Biến môi trường</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biến môi trường
-@APK
-NULL
- "TMT2020" 
-0
- Biến môi trường</t>
-  </si>
-  <si>
-    <t>Update TMT2020 
-Set StatusID = @StatusID,
-LastModifyUserID = @LastModifyUserID,
-LastModifyDate = @LastModifyDate
-Where APK = @APK</t>
-  </si>
-  <si>
     <t>Tạo checklist</t>
   </si>
   <si>
@@ -2403,43 +2297,16 @@
     <t>Boolean</t>
   </si>
   <si>
-    <t xml:space="preserve">EXEC TMP2024 ( 
- @DivisionID varchar(50),
- @APK NVARCHAR(MAX),
- @APKList NVARCHAR(MAX),
- @TableID NVARCHAR(MAX), --TMT2020
- @Mode tinyint,   --0: Sửa, 1: Xóa
- @UserID Varchar(50)) </t>
-  </si>
-  <si>
     <t>Trường hợp Click button [Xóa checklist].</t>
   </si>
   <si>
     <t>@SQL008</t>
   </si>
   <si>
-    <t xml:space="preserve"> Biến môi trường
-NULL
- @APKcủa checklist công việc
- "TMT2021" 
-1
- Biến môi trường</t>
-  </si>
-  <si>
     <t>Load lưới tab [thông tin checklist công việc]</t>
   </si>
   <si>
     <t>@SQL009</t>
-  </si>
-  <si>
-    <t>SELECT ROW_NUMBER() OVER (ORDER BY  M.CreateDate DESC) AS RowNum, COUNT(*) OVER () AS TotalRow
-, M.APK, M.APKMaster, M.CheckListName, M.IsCompleted, M.DeleteFlg
-, M.CreateUserID, M.CreateDate, M.LastModifyUserID, M.LastModifyDate
-FROM TMT2021 M With (NOLOCK) 
-Where M.APKMaster =@APK and M.DeleteFlg = 0
-Order By M.CreateDate DESC
-OFFSET  (@PageNumber-1) * @PageSize ROWS
-FETCH NEXT @PageSize ROWS ONLY</t>
   </si>
   <si>
     <t>@APK
@@ -2447,25 +2314,41 @@
 @PageSize</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Luồng 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click dropdown [Hoạt động]
-  - Click link [Đính kèm]: xử lý đính kèm theo chuẩn
-  - Click link [Tạo checklist]: truyền tham số @DivisionID và @APK của TMF2022 gọi đến màn hình TMF2024, sau khi đóng màn hình TMF2024 thì thực thi @SQL009 để load lại tab [Thông tin checklist công việc]
-  - Click link [Tên checklist]: truyền tham số @DivisionID và @APKDetail của tab [thông tin checklist công việc] gọi đến màn hình TMF2024, sau khi đóng màn hình TMF2024 thì thực thi @SQL009 để load lại tab [Thông tin checklist công việc]
-  - Click button [Xóa checklist]: thực thi @SQL008 check và xóa</t>
-    </r>
-  </si>
-  <si>
     <t>Thực hiện luồng nghiệp vụ: 5, 6, 8</t>
+  </si>
+  <si>
+    <t>OOF2112</t>
+  </si>
+  <si>
+    <t>Login TM
+-&gt; Nghiệp vụ
+-&gt; Công việc
+-&gt; Danh sách công việc (Dạng danh sách)
+-&gt; Chọn vào link [Mã công việc] 
+-&gt; Xem chi tiết công việc_OOF2112</t>
+  </si>
+  <si>
+    <t>- Thực @SQL001,luồng 4, luồng 5, luồng 6: load dữ liệu các tab tương ứng trong form OOF2112</t>
+  </si>
+  <si>
+    <t>Luồng 7: Xử lý load từng tab màn hình OOF2112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   + Khi màn hình OOF2112 load lên lần đầu: thì chỉ mở tab [Thông tin cơ hội], [Thông tin mô tả] và tab [Thông tin hệ thống],  tất cả các tab khác đóng và không load câu SQL</t>
+  </si>
+  <si>
+    <t>Click btnEditWorkID 
+Truyền tham số @APK để gọi đến form OOF2111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luồng 1: Click button btnEditWorkID  [Sửa công việc]
+      + Truyền tham số @APK gọi đến màn hình OOF2111 sửa công việc
+      + Nhận tham số @APK từ màn hình OOF2111 truyền vào @SQL001 để load lại tab [Thông tin công việc], [Thông tin mô tả],  [Thông tin hệ thống ] và Xem luồng 4 load [Thông tin lịch sử]
+   </t>
+  </si>
+  <si>
+    <t>Click btnDeleteWorkID 
+Truyền tham số @APK để gọi đến form OOF2110 dạng danh sách</t>
   </si>
   <si>
     <t>Select M.APK, M.DivisionID, M.WorkID, M.WorkName, M.ParentWorkID, TM22.WorkName as ParentWorkName
@@ -2479,24 +2362,114 @@
 , A4.Description as IsRepeatName, M.Description
 , M.CreateUserID, M.CreateUserID +'_'+ A1.FullName as CreateUserName, M.CreateDate
 , M.LastModifyUserID, M.LastModifyUserID +'_'+ A2.FullName as LastModifyUserName, M.LastModifyDate
-from TMT2020 M With (NOLOCK) Left join TMT2010 TM21 With (NOLOCK) on M.ProjectID = TM21.ProjectID
-         Left join TMT1010 TM11 With (NOLOCK) on M.ProcessID = TM11.ProcessID
-         Left join TMT1020 TM12 With (NOLOCK) on M.StepID = TM12.StepID
+from OOT2110 M With (NOLOCK) Left join OOT2100 TM21 With (NOLOCK) on M.ProjectID = TM21.ProjectID
+         Left join OOT1020 TM11 With (NOLOCK) on M.ProcessID = TM11.ProcessID
+         Left join OOT1030 TM12 With (NOLOCK) on M.StepID = TM12.StepID
          Left join HT1400 HT141 With (NOLOCK) on M.AssignedToUserID = HT141.EmployeeID
          Left join HT1400 HT142 With (NOLOCK) on M.ReviewerUserID = HT142.EmployeeID
-         Left join TMT1030 TM13 With (NOLOCK) on M.StatusID = TM13.StatusID
-         Left join TMT2020 TM22 With (NOLOCK) on M.ParentWorkID = TM22.WorkID
+         Left join OOT1040 TM13 With (NOLOCK) on M.StatusID = TM13.StatusID
+         Left join OOT2110 TM22 With (NOLOCK) on M.ParentWorkID = TM22.WorkID
          left Join AT1103 A1 With (NOLOCK) on A1.EmployeeID =  M.CreateUserID 
          left Join AT1103 A2 With (NOLOCK) on A2.EmployeeID =  M.LastModifyUserID 
          Left join AT0099 A4 With (NOLOCK) on M.IsRepeat = A4.ID and A4.CodeMaster = N'AT00000004'
          Left join CRMT0099 A3 With (NOLOCK) on M.PriorityID = A3.ID and A3.CodeMaster = N'CRMT00000006'
 Where M.APK =@APK and M.DeleteFlg = 0</t>
   </si>
+  <si>
+    <t xml:space="preserve">EXEC OOP2110 
+( 
+ @DivisionID nvarchar(250),
+ @DivisionIDList NVARCHAR(MAX), 
+ @FromDate Datetime,
+ @ToDate Datetime,
+ @WorkID nvarchar(250),
+ @ProjectID nvarchar(250),
+ @ProcessID nvarchar(250),
+ @StepID nvarchar(250),
+ @StatusID nvarchar(250),
+ @ReviewerUserID nvarchar(250),
+ @AssignedToUserID nvarchar(250),
+ @Mode int,       --1: Kanban, 2: List, 3: Gantt, 4: Calendar
+ @ConditionWorkID  NVARCHAR (MAX),
+ @UserID  nvarchar(250),
+ @PageNumber INT,
+ @PageSize INT
+   ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC OOP2111 ( 
+ @DivisionID varchar(50),
+ @APK NVARCHAR(MAX),
+ @APKList NVARCHAR(MAX),
+ @TableID NVARCHAR(MAX), --OOT2110
+ @Mode tinyint,   --0: Sửa, 1: Xóa
+ @UserID Varchar(50)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biến môi trường
+NULL
+ @APK
+ "OOT2110" 
+1
+ Biến môi trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biến môi trường
+@APK
+NULL
+ "OOT2110" 
+0
+ Biến môi trường</t>
+  </si>
+  <si>
+    <t>Update OOT2110 
+Set StatusID = @StatusID,
+LastModifyUserID = @LastModifyUserID,
+LastModifyDate = @LastModifyDate
+Where APK = @APK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC OOP2114 ( 
+ @DivisionID varchar(50),
+ @APK NVARCHAR(MAX),
+ @APKList NVARCHAR(MAX),
+ @TableID NVARCHAR(MAX), --OOT2111
+ @Mode tinyint,   --0: Sửa, 1: Xóa
+ @UserID Varchar(50)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biến môi trường
+NULL
+ @APKcủa checklist công việc
+ "OOT2111" 
+1
+ Biến môi trường</t>
+  </si>
+  <si>
+    <t>SELECT ROW_NUMBER() OVER (ORDER BY  M.CreateDate DESC) AS RowNum, COUNT(*) OVER () AS TotalRow
+, M.APK, M.APKMaster, M.CheckListName, M.IsComplete, M.DeleteFlg
+, M.CreateUserID, M.CreateDate, M.LastModifyUserID, M.LastModifyDate
+FROM OOT2111 M With (NOLOCK) 
+Where M.APKMaster =@APK and M.DeleteFlg = 0
+Order By M.CreateDate DESC
+OFFSET  (@PageNumber-1) * @PageSize ROWS
+FETCH NEXT @PageSize ROWS ONLY</t>
+  </si>
+  <si>
+    <t>Luồng 8: Click dropdown [Hoạt động]
+  - Click link [Đính kèm]: xử lý đính kèm theo chuẩn
+  - Click link [Tạo checklist]: truyền tham số @DivisionID và @APK của OOF2112 gọi đến màn hình OOF2114, sau khi đóng màn hình OOF2114 thì thực thi @SQL009 để load lại tab [Thông tin checklist công việc]
+  - Click link [Tên checklist]: truyền tham số @DivisionID và @APKDetail của tab [thông tin checklist công việc] gọi đến màn hình OOF2114, sau khi đóng màn hình OOF2114 thì thực thi @SQL009 để load lại tab [Thông tin checklist công việc]
+  - Click button [Xóa checklist]: thực thi @SQL008 check và xóa</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -3617,6 +3590,36 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3641,36 +3644,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3704,6 +3677,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3743,18 +3722,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3767,71 +3740,71 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3882,19 +3855,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>3656384</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>56384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E4D1B2-856E-4F9E-8D36-9D47273D19BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3907,8 +3886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="647700"/>
-          <a:ext cx="7953375" cy="5210175"/>
+          <a:off x="219075" y="638175"/>
+          <a:ext cx="9723809" cy="6123809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3937,7 +3916,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="42" name="Group 41"/>
+        <xdr:cNvPr id="42" name="Group 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3950,7 +3935,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="Group 30"/>
+          <xdr:cNvPr id="31" name="Group 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3963,7 +3954,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="Rectangle 3"/>
+            <xdr:cNvPr id="32" name="Rectangle 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4049,7 +4046,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="Rectangle 32"/>
+            <xdr:cNvPr id="33" name="Rectangle 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4090,7 +4093,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:rPr>
-                <a:t>Load Form TMF2020 thực thi @SQL002, đóng form TMF2022</a:t>
+                <a:t>Load Form OOF2110 thực thi @SQL002, đóng form OOF2112</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="750">
                 <a:effectLst/>
@@ -4102,7 +4105,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+            <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="32" idx="3"/>
               <a:endCxn id="36" idx="1"/>
@@ -4137,7 +4146,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+            <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:endCxn id="33" idx="1"/>
             </xdr:cNvCxnSpPr>
@@ -4171,7 +4186,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="Flowchart: Decision 35"/>
+            <xdr:cNvPr id="36" name="Flowchart: Decision 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4235,7 +4256,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+            <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="36" idx="3"/>
             </xdr:cNvCxnSpPr>
@@ -4269,7 +4296,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="TextBox 37"/>
+            <xdr:cNvPr id="38" name="TextBox 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4317,7 +4350,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="TextBox 38"/>
+            <xdr:cNvPr id="39" name="TextBox 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4366,7 +4405,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Flowchart: Direct Access Storage 39"/>
+          <xdr:cNvPr id="40" name="Flowchart: Direct Access Storage 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4459,7 +4504,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="Elbow Connector 40"/>
+          <xdr:cNvPr id="41" name="Elbow Connector 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4509,7 +4560,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="Rectangle 3"/>
+        <xdr:cNvPr id="83" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4581,7 +4638,7 @@
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Form TMF2022</a:t>
+            <a:t>Form OOF2112</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="750">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -4607,7 +4664,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="Rectangle 83"/>
+        <xdr:cNvPr id="84" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4648,7 +4711,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Load Form TMF2022 thực thi @SQL001</a:t>
+            <a:t>Load Form OOF2112 thực thi @SQL001</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="750">
             <a:effectLst/>
@@ -4675,7 +4738,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="Straight Arrow Connector 84"/>
+        <xdr:cNvPr id="85" name="Straight Arrow Connector 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
           <a:endCxn id="87" idx="1"/>
@@ -4725,7 +4794,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="81" idx="4"/>
           <a:endCxn id="84" idx="1"/>
@@ -4775,7 +4850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Flowchart: Decision 86"/>
+        <xdr:cNvPr id="87" name="Flowchart: Decision 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4854,7 +4935,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="3"/>
           <a:endCxn id="91" idx="1"/>
@@ -4904,7 +4991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="TextBox 88"/>
+        <xdr:cNvPr id="89" name="TextBox 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4967,7 +5060,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="TextBox 89"/>
+        <xdr:cNvPr id="90" name="TextBox 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5030,7 +5129,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Flowchart: Direct Access Storage 80"/>
+        <xdr:cNvPr id="81" name="Flowchart: Direct Access Storage 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5138,7 +5243,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Elbow Connector 81"/>
+        <xdr:cNvPr id="82" name="Elbow Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5187,7 +5298,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Flowchart: Decision 90"/>
+        <xdr:cNvPr id="91" name="Flowchart: Decision 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5278,7 +5395,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="Straight Arrow Connector 91"/>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="91" idx="3"/>
           <a:endCxn id="81" idx="1"/>
@@ -5328,7 +5451,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rectangle 3"/>
+        <xdr:cNvPr id="93" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5412,7 +5541,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="91" idx="2"/>
           <a:endCxn id="93" idx="0"/>
@@ -5526,6 +5661,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5561,6 +5713,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5736,12 +5905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5774,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -5796,13 +5965,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>6</v>
@@ -6131,11 +6300,11 @@
     <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ERP.NET 9.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"POS, KPI"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"POS, KPI,OO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
@@ -6150,12 +6319,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6167,7 +6336,7 @@
     <col min="5" max="5" width="15.7109375" style="22" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="22" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="61.140625" style="22" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="22" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
@@ -6190,7 +6359,7 @@
       </c>
       <c r="F1" s="81" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2022</v>
+        <v>OOF2112</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -6215,7 +6384,7 @@
       </c>
       <c r="D2" s="31" t="str">
         <f>'Update History'!D2</f>
-        <v>TM</v>
+        <v>OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
@@ -6265,7 +6434,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="37"/>
       <c r="I5" s="257" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J5" s="258"/>
     </row>
@@ -6353,7 +6522,7 @@
       <c r="G12" s="36"/>
       <c r="H12" s="38"/>
       <c r="I12" s="250" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="J12" s="251"/>
     </row>
@@ -6642,7 +6811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:EB48"/>
   <sheetViews>
@@ -6696,7 +6865,7 @@
       <c r="I1" s="264"/>
       <c r="J1" s="240" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2022</v>
+        <v>OOF2112</v>
       </c>
       <c r="K1" s="241"/>
       <c r="L1" s="242"/>
@@ -6766,7 +6935,7 @@
       </c>
       <c r="G2" s="26" t="str">
         <f>'Update History'!D2</f>
-        <v>TM</v>
+        <v>OO</v>
       </c>
       <c r="H2" s="263" t="s">
         <v>41</v>
@@ -6859,7 +7028,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I4" s="65" t="s">
         <v>38</v>
@@ -7004,14 +7173,14 @@
       </c>
       <c r="D6" s="171"/>
       <c r="E6" s="169" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F6" s="169" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G6" s="169"/>
       <c r="H6" s="169" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I6" s="169" t="s">
         <v>138</v>
@@ -7077,11 +7246,11 @@
         <v>145</v>
       </c>
       <c r="F7" s="169" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G7" s="169"/>
       <c r="H7" s="169" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I7" s="169" t="s">
         <v>138</v>
@@ -7144,16 +7313,16 @@
       </c>
       <c r="D8" s="171"/>
       <c r="E8" s="169" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F8" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="169" t="s">
         <v>213</v>
-      </c>
-      <c r="G8" s="169" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="169" t="s">
-        <v>216</v>
       </c>
       <c r="I8" s="169" t="s">
         <v>138</v>
@@ -7218,10 +7387,10 @@
       </c>
       <c r="D9" s="171"/>
       <c r="E9" s="169" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F9" s="169" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G9" s="169"/>
       <c r="H9" s="169" t="s">
@@ -7286,10 +7455,10 @@
       </c>
       <c r="D10" s="116"/>
       <c r="E10" s="169" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F10" s="169" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G10" s="169"/>
       <c r="H10" s="169" t="s">
@@ -7429,7 +7598,7 @@
       </c>
       <c r="D11" s="116"/>
       <c r="E11" s="169" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F11" s="169" t="s">
         <v>142</v>
@@ -7572,13 +7741,13 @@
       </c>
       <c r="D12" s="116"/>
       <c r="E12" s="169" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F12" s="169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G12" s="169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H12" s="169" t="s">
         <v>137</v>
@@ -7722,13 +7891,13 @@
       </c>
       <c r="D13" s="116"/>
       <c r="E13" s="169" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F13" s="169" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G13" s="169" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H13" s="169" t="s">
         <v>137</v>
@@ -7872,13 +8041,13 @@
       </c>
       <c r="D14" s="116"/>
       <c r="E14" s="169" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F14" s="169" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G14" s="169" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H14" s="169" t="s">
         <v>137</v>
@@ -8022,13 +8191,13 @@
       </c>
       <c r="D15" s="116"/>
       <c r="E15" s="169" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F15" s="169" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G15" s="169" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H15" s="169" t="s">
         <v>137</v>
@@ -8056,13 +8225,13 @@
       </c>
       <c r="D16" s="116"/>
       <c r="E16" s="169" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F16" s="169" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G16" s="169" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H16" s="169" t="s">
         <v>137</v>
@@ -8090,13 +8259,13 @@
       </c>
       <c r="D17" s="116"/>
       <c r="E17" s="169" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F17" s="169" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G17" s="169" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H17" s="169" t="s">
         <v>137</v>
@@ -8124,13 +8293,13 @@
       </c>
       <c r="D18" s="116"/>
       <c r="E18" s="169" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F18" s="169" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G18" s="169" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H18" s="169" t="s">
         <v>137</v>
@@ -8272,19 +8441,19 @@
       </c>
       <c r="D19" s="116"/>
       <c r="E19" s="169" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F19" s="169" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G19" s="169" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H19" s="169" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I19" s="169" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J19" s="169"/>
       <c r="K19" s="169"/>
@@ -8292,7 +8461,7 @@
         <v>144</v>
       </c>
       <c r="M19" s="206" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N19" s="191"/>
       <c r="O19" s="191"/>
@@ -8308,19 +8477,19 @@
       </c>
       <c r="D20" s="116"/>
       <c r="E20" s="169" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F20" s="169" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G20" s="169" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H20" s="169" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I20" s="169" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J20" s="169"/>
       <c r="K20" s="169"/>
@@ -8328,7 +8497,7 @@
         <v>144</v>
       </c>
       <c r="M20" s="206" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N20" s="191"/>
       <c r="O20" s="191"/>
@@ -8344,13 +8513,13 @@
       </c>
       <c r="D21" s="116"/>
       <c r="E21" s="169" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F21" s="169" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G21" s="169" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H21" s="169" t="s">
         <v>137</v>
@@ -8378,13 +8547,13 @@
       </c>
       <c r="D22" s="116"/>
       <c r="E22" s="169" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F22" s="169" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G22" s="169" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H22" s="169" t="s">
         <v>137</v>
@@ -8528,13 +8697,13 @@
       </c>
       <c r="D23" s="116"/>
       <c r="E23" s="169" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F23" s="169" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="169" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H23" s="169" t="s">
         <v>137</v>
@@ -8678,13 +8847,13 @@
       </c>
       <c r="D24" s="116"/>
       <c r="E24" s="169" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F24" s="169" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G24" s="169" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H24" s="169" t="s">
         <v>137</v>
@@ -8828,13 +8997,13 @@
       </c>
       <c r="D25" s="116"/>
       <c r="E25" s="169" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="169" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G25" s="169" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H25" s="169" t="s">
         <v>137</v>
@@ -8978,19 +9147,19 @@
       </c>
       <c r="D26" s="116"/>
       <c r="E26" s="169" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="169" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="169" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="169" t="s">
         <v>228</v>
       </c>
-      <c r="F26" s="169" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" s="169" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="169" t="s">
-        <v>233</v>
-      </c>
       <c r="I26" s="169" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J26" s="169"/>
       <c r="K26" s="169"/>
@@ -8998,7 +9167,7 @@
         <v>144</v>
       </c>
       <c r="M26" s="206" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N26" s="191"/>
       <c r="O26" s="191"/>
@@ -9014,19 +9183,19 @@
       </c>
       <c r="D27" s="116"/>
       <c r="E27" s="169" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="H27" s="169" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" s="169" t="s">
         <v>229</v>
-      </c>
-      <c r="F27" s="169" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="169" t="s">
-        <v>232</v>
-      </c>
-      <c r="H27" s="169" t="s">
-        <v>233</v>
-      </c>
-      <c r="I27" s="169" t="s">
-        <v>234</v>
       </c>
       <c r="J27" s="169"/>
       <c r="K27" s="169"/>
@@ -9034,7 +9203,7 @@
         <v>144</v>
       </c>
       <c r="M27" s="206" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N27" s="191"/>
       <c r="O27" s="191"/>
@@ -9050,13 +9219,13 @@
       </c>
       <c r="D28" s="116"/>
       <c r="E28" s="169" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F28" s="169" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G28" s="169" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H28" s="169" t="s">
         <v>137</v>
@@ -9084,13 +9253,13 @@
       </c>
       <c r="D29" s="116"/>
       <c r="E29" s="169" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F29" s="169" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G29" s="169" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H29" s="169" t="s">
         <v>137</v>
@@ -9118,13 +9287,13 @@
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="169" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F30" s="169" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G30" s="169" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H30" s="169" t="s">
         <v>137</v>
@@ -9152,13 +9321,13 @@
       </c>
       <c r="D31" s="116"/>
       <c r="E31" s="169" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F31" s="169" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G31" s="169" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="169" t="s">
         <v>137</v>
@@ -9186,13 +9355,13 @@
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="169" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F32" s="169" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G32" s="169" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H32" s="169" t="s">
         <v>137</v>
@@ -9220,7 +9389,7 @@
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="169" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F33" s="169" t="s">
         <v>142</v>
@@ -9246,7 +9415,7 @@
       </c>
       <c r="D34" s="116"/>
       <c r="E34" s="169" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F34" s="169" t="s">
         <v>111</v>
@@ -9280,7 +9449,7 @@
       </c>
       <c r="D35" s="116"/>
       <c r="E35" s="169" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F35" s="169" t="s">
         <v>142</v>
@@ -9306,14 +9475,14 @@
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="169" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="F36" s="169" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G36" s="169"/>
       <c r="H36" s="169" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I36" s="169" t="s">
         <v>138</v>
@@ -9338,17 +9507,17 @@
       </c>
       <c r="D37" s="116"/>
       <c r="E37" s="169" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F37" s="169" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G37" s="169"/>
       <c r="H37" s="169" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I37" s="169" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="J37" s="169"/>
       <c r="K37" s="169"/>
@@ -9370,10 +9539,10 @@
       </c>
       <c r="D38" s="116"/>
       <c r="E38" s="169" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F38" s="169" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G38" s="169"/>
       <c r="H38" s="169" t="s">
@@ -9400,14 +9569,14 @@
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="169" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F39" s="169" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G39" s="169"/>
       <c r="H39" s="169" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I39" s="169" t="s">
         <v>138</v>
@@ -9850,19 +10019,19 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10:N11 N12:O39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10:N11 N12:O39" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Caption,Dropdown,Textbox,DateTimePicker, SpinNumeric,Table, Cell,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid,GridColumn,Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I39" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L10:L39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L10:L39" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H43" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Caption,Textbox,DateTimePicker, SpinNumeric,Table, Cell,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid,GridColumn,Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9876,7 +10045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R25"/>
   <sheetViews>
@@ -9917,24 +10086,24 @@
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="268" t="str">
+      <c r="F1" s="278" t="str">
         <f>'Update History'!D1</f>
         <v>ERP.NET 9.0</v>
       </c>
-      <c r="G1" s="268"/>
-      <c r="H1" s="269" t="s">
+      <c r="G1" s="278"/>
+      <c r="H1" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="269"/>
-      <c r="J1" s="270" t="str">
+      <c r="I1" s="279"/>
+      <c r="J1" s="280" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2022</v>
-      </c>
-      <c r="K1" s="271"/>
+        <v>OOF2112</v>
+      </c>
+      <c r="K1" s="281"/>
       <c r="L1" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="272"/>
+      <c r="M1" s="282"/>
       <c r="N1" s="264"/>
       <c r="O1" s="40" t="str">
         <f>'Update History'!H1</f>
@@ -9957,24 +10126,24 @@
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="268" t="str">
+      <c r="F2" s="278" t="str">
         <f>'Update History'!D2</f>
-        <v>TM</v>
-      </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="269" t="s">
+        <v>OO</v>
+      </c>
+      <c r="G2" s="278"/>
+      <c r="H2" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="269"/>
-      <c r="J2" s="270" t="str">
+      <c r="I2" s="279"/>
+      <c r="J2" s="280" t="str">
         <f>'Update History'!F2</f>
         <v>Xem chi tiết công việc</v>
       </c>
-      <c r="K2" s="271"/>
+      <c r="K2" s="281"/>
       <c r="L2" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="272"/>
+      <c r="M2" s="282"/>
       <c r="N2" s="264"/>
       <c r="O2" s="41">
         <f>'Update History'!H2</f>
@@ -10020,16 +10189,16 @@
       <c r="J4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="265" t="s">
+      <c r="K4" s="275" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="266"/>
-      <c r="M4" s="266"/>
-      <c r="N4" s="266"/>
-      <c r="O4" s="266"/>
-      <c r="P4" s="266"/>
-      <c r="Q4" s="266"/>
-      <c r="R4" s="267"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="276"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="276"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="277"/>
     </row>
     <row r="5" spans="1:18" s="69" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
@@ -10043,13 +10212,13 @@
       <c r="I5" s="157"/>
       <c r="J5" s="98"/>
       <c r="K5" s="246"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="274"/>
+      <c r="L5" s="265"/>
+      <c r="M5" s="265"/>
+      <c r="N5" s="265"/>
+      <c r="O5" s="265"/>
+      <c r="P5" s="265"/>
+      <c r="Q5" s="265"/>
+      <c r="R5" s="266"/>
     </row>
     <row r="6" spans="1:18" s="161" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
@@ -10063,13 +10232,13 @@
       <c r="I6" s="157"/>
       <c r="J6" s="97"/>
       <c r="K6" s="246"/>
-      <c r="L6" s="273"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="273"/>
-      <c r="P6" s="273"/>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="274"/>
+      <c r="L6" s="265"/>
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="265"/>
+      <c r="P6" s="265"/>
+      <c r="Q6" s="265"/>
+      <c r="R6" s="266"/>
     </row>
     <row r="7" spans="1:18" s="161" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
@@ -10083,13 +10252,13 @@
       <c r="I7" s="157"/>
       <c r="J7" s="98"/>
       <c r="K7" s="246"/>
-      <c r="L7" s="273"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="273"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="273"/>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="274"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="265"/>
+      <c r="Q7" s="265"/>
+      <c r="R7" s="266"/>
     </row>
     <row r="8" spans="1:18" s="161" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A8" s="70"/>
@@ -10103,13 +10272,13 @@
       <c r="I8" s="157"/>
       <c r="J8" s="97"/>
       <c r="K8" s="246"/>
-      <c r="L8" s="273"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="273"/>
-      <c r="P8" s="273"/>
-      <c r="Q8" s="273"/>
-      <c r="R8" s="274"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="265"/>
+      <c r="Q8" s="265"/>
+      <c r="R8" s="266"/>
     </row>
     <row r="9" spans="1:18" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A9" s="70"/>
@@ -10122,14 +10291,14 @@
       <c r="H9" s="157"/>
       <c r="I9" s="157"/>
       <c r="J9" s="98"/>
-      <c r="K9" s="280"/>
-      <c r="L9" s="281"/>
-      <c r="M9" s="281"/>
-      <c r="N9" s="281"/>
-      <c r="O9" s="281"/>
-      <c r="P9" s="281"/>
-      <c r="Q9" s="281"/>
-      <c r="R9" s="282"/>
+      <c r="K9" s="272"/>
+      <c r="L9" s="273"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="273"/>
+      <c r="O9" s="273"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="274"/>
     </row>
     <row r="10" spans="1:18" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A10" s="70"/>
@@ -10142,14 +10311,14 @@
       <c r="H10" s="157"/>
       <c r="I10" s="157"/>
       <c r="J10" s="98"/>
-      <c r="K10" s="280"/>
-      <c r="L10" s="281"/>
-      <c r="M10" s="281"/>
-      <c r="N10" s="281"/>
-      <c r="O10" s="281"/>
-      <c r="P10" s="281"/>
-      <c r="Q10" s="281"/>
-      <c r="R10" s="282"/>
+      <c r="K10" s="272"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="273"/>
+      <c r="N10" s="273"/>
+      <c r="O10" s="273"/>
+      <c r="P10" s="273"/>
+      <c r="Q10" s="273"/>
+      <c r="R10" s="274"/>
     </row>
     <row r="11" spans="1:18" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="70"/>
@@ -10162,14 +10331,14 @@
       <c r="H11" s="157"/>
       <c r="I11" s="157"/>
       <c r="J11" s="98"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="281"/>
-      <c r="N11" s="281"/>
-      <c r="O11" s="281"/>
-      <c r="P11" s="281"/>
-      <c r="Q11" s="281"/>
-      <c r="R11" s="282"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="273"/>
+      <c r="M11" s="273"/>
+      <c r="N11" s="273"/>
+      <c r="O11" s="273"/>
+      <c r="P11" s="273"/>
+      <c r="Q11" s="273"/>
+      <c r="R11" s="274"/>
     </row>
     <row r="12" spans="1:18" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A12" s="70"/>
@@ -10182,14 +10351,14 @@
       <c r="H12" s="157"/>
       <c r="I12" s="157"/>
       <c r="J12" s="98"/>
-      <c r="K12" s="280"/>
-      <c r="L12" s="281"/>
-      <c r="M12" s="281"/>
-      <c r="N12" s="281"/>
-      <c r="O12" s="281"/>
-      <c r="P12" s="281"/>
-      <c r="Q12" s="281"/>
-      <c r="R12" s="282"/>
+      <c r="K12" s="272"/>
+      <c r="L12" s="273"/>
+      <c r="M12" s="273"/>
+      <c r="N12" s="273"/>
+      <c r="O12" s="273"/>
+      <c r="P12" s="273"/>
+      <c r="Q12" s="273"/>
+      <c r="R12" s="274"/>
     </row>
     <row r="13" spans="1:18" s="170" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A13" s="70"/>
@@ -10202,14 +10371,14 @@
       <c r="H13" s="168"/>
       <c r="I13" s="165"/>
       <c r="J13" s="169"/>
-      <c r="K13" s="280"/>
-      <c r="L13" s="281"/>
-      <c r="M13" s="281"/>
-      <c r="N13" s="281"/>
-      <c r="O13" s="281"/>
-      <c r="P13" s="281"/>
-      <c r="Q13" s="281"/>
-      <c r="R13" s="282"/>
+      <c r="K13" s="272"/>
+      <c r="L13" s="273"/>
+      <c r="M13" s="273"/>
+      <c r="N13" s="273"/>
+      <c r="O13" s="273"/>
+      <c r="P13" s="273"/>
+      <c r="Q13" s="273"/>
+      <c r="R13" s="274"/>
     </row>
     <row r="14" spans="1:18" s="170" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A14" s="70"/>
@@ -10222,14 +10391,14 @@
       <c r="H14" s="168"/>
       <c r="I14" s="165"/>
       <c r="J14" s="171"/>
-      <c r="K14" s="280"/>
-      <c r="L14" s="281"/>
-      <c r="M14" s="281"/>
-      <c r="N14" s="281"/>
-      <c r="O14" s="281"/>
-      <c r="P14" s="281"/>
-      <c r="Q14" s="281"/>
-      <c r="R14" s="282"/>
+      <c r="K14" s="272"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="273"/>
+      <c r="N14" s="273"/>
+      <c r="O14" s="273"/>
+      <c r="P14" s="273"/>
+      <c r="Q14" s="273"/>
+      <c r="R14" s="274"/>
     </row>
     <row r="15" spans="1:18" s="170" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A15" s="70"/>
@@ -10242,14 +10411,14 @@
       <c r="H15" s="168"/>
       <c r="I15" s="165"/>
       <c r="J15" s="171"/>
-      <c r="K15" s="280"/>
-      <c r="L15" s="281"/>
-      <c r="M15" s="281"/>
-      <c r="N15" s="281"/>
-      <c r="O15" s="281"/>
-      <c r="P15" s="281"/>
-      <c r="Q15" s="281"/>
-      <c r="R15" s="282"/>
+      <c r="K15" s="272"/>
+      <c r="L15" s="273"/>
+      <c r="M15" s="273"/>
+      <c r="N15" s="273"/>
+      <c r="O15" s="273"/>
+      <c r="P15" s="273"/>
+      <c r="Q15" s="273"/>
+      <c r="R15" s="274"/>
     </row>
     <row r="16" spans="1:18" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="70"/>
@@ -10262,14 +10431,14 @@
       <c r="H16" s="160"/>
       <c r="I16" s="157"/>
       <c r="J16" s="98"/>
-      <c r="K16" s="275"/>
-      <c r="L16" s="276"/>
-      <c r="M16" s="276"/>
-      <c r="N16" s="276"/>
-      <c r="O16" s="276"/>
-      <c r="P16" s="276"/>
-      <c r="Q16" s="276"/>
-      <c r="R16" s="276"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="268"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="268"/>
     </row>
     <row r="17" spans="1:18" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A17" s="70"/>
@@ -10282,14 +10451,14 @@
       <c r="H17" s="160"/>
       <c r="I17" s="157"/>
       <c r="J17" s="98"/>
-      <c r="K17" s="275"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="276"/>
-      <c r="N17" s="276"/>
-      <c r="O17" s="276"/>
-      <c r="P17" s="276"/>
-      <c r="Q17" s="276"/>
-      <c r="R17" s="276"/>
+      <c r="K17" s="267"/>
+      <c r="L17" s="268"/>
+      <c r="M17" s="268"/>
+      <c r="N17" s="268"/>
+      <c r="O17" s="268"/>
+      <c r="P17" s="268"/>
+      <c r="Q17" s="268"/>
+      <c r="R17" s="268"/>
     </row>
     <row r="18" spans="1:18" s="156" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="70"/>
@@ -10302,14 +10471,14 @@
       <c r="H18" s="157"/>
       <c r="I18" s="157"/>
       <c r="J18" s="98"/>
-      <c r="K18" s="277"/>
-      <c r="L18" s="278"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="278"/>
-      <c r="O18" s="278"/>
-      <c r="P18" s="278"/>
-      <c r="Q18" s="278"/>
-      <c r="R18" s="279"/>
+      <c r="K18" s="269"/>
+      <c r="L18" s="270"/>
+      <c r="M18" s="270"/>
+      <c r="N18" s="270"/>
+      <c r="O18" s="270"/>
+      <c r="P18" s="270"/>
+      <c r="Q18" s="270"/>
+      <c r="R18" s="271"/>
     </row>
     <row r="19" spans="1:18" s="156" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="70"/>
@@ -10322,14 +10491,14 @@
       <c r="H19" s="157"/>
       <c r="I19" s="157"/>
       <c r="J19" s="97"/>
-      <c r="K19" s="277"/>
-      <c r="L19" s="278"/>
-      <c r="M19" s="278"/>
-      <c r="N19" s="278"/>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="279"/>
+      <c r="K19" s="269"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="270"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="270"/>
+      <c r="P19" s="270"/>
+      <c r="Q19" s="270"/>
+      <c r="R19" s="271"/>
     </row>
     <row r="20" spans="1:18" s="156" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A20" s="70"/>
@@ -10342,14 +10511,14 @@
       <c r="H20" s="157"/>
       <c r="I20" s="157"/>
       <c r="J20" s="98"/>
-      <c r="K20" s="277"/>
-      <c r="L20" s="278"/>
-      <c r="M20" s="278"/>
-      <c r="N20" s="278"/>
-      <c r="O20" s="278"/>
-      <c r="P20" s="278"/>
-      <c r="Q20" s="278"/>
-      <c r="R20" s="279"/>
+      <c r="K20" s="269"/>
+      <c r="L20" s="270"/>
+      <c r="M20" s="270"/>
+      <c r="N20" s="270"/>
+      <c r="O20" s="270"/>
+      <c r="P20" s="270"/>
+      <c r="Q20" s="270"/>
+      <c r="R20" s="271"/>
     </row>
     <row r="21" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L21" s="75"/>
@@ -10393,6 +10562,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="K6:R6"/>
     <mergeCell ref="K8:R8"/>
@@ -10409,22 +10588,12 @@
     <mergeCell ref="K13:R13"/>
     <mergeCell ref="K14:R14"/>
     <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17 E5:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17 E5:E15" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10440,12 +10609,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10489,7 +10658,7 @@
       </c>
       <c r="H1" s="53" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2022</v>
+        <v>OOF2112</v>
       </c>
       <c r="I1" s="54" t="s">
         <v>5</v>
@@ -10518,7 +10687,7 @@
       </c>
       <c r="F2" s="55" t="str">
         <f>'Update History'!D2</f>
-        <v>TM</v>
+        <v>OO</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>41</v>
@@ -10590,13 +10759,13 @@
         <v>138</v>
       </c>
       <c r="G5" s="293" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="H5" s="293"/>
       <c r="I5" s="293"/>
       <c r="J5" s="293"/>
       <c r="K5" s="283" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L5" s="284"/>
     </row>
@@ -10616,13 +10785,13 @@
         <v>138</v>
       </c>
       <c r="G6" s="293" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="H6" s="293"/>
       <c r="I6" s="293"/>
       <c r="J6" s="293"/>
       <c r="K6" s="283" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L6" s="284"/>
     </row>
@@ -10638,7 +10807,7 @@
     <mergeCell ref="G6:J6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Text,Number,Boolean,Datatime,Object,Structure"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10654,12 +10823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AH1048033"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:M9"/>
+      <selection activeCell="J13" sqref="J13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10701,17 +10870,17 @@
       <c r="H1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="268" t="str">
+      <c r="I1" s="278" t="str">
         <f>'Update History'!D1</f>
         <v>ERP.NET 9.0</v>
       </c>
-      <c r="J1" s="268"/>
+      <c r="J1" s="278"/>
       <c r="K1" s="61" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="60" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2022</v>
+        <v>OOF2112</v>
       </c>
       <c r="M1" s="61" t="s">
         <v>5</v>
@@ -10723,12 +10892,12 @@
       <c r="O1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="307" t="str">
+      <c r="P1" s="294" t="str">
         <f>'Update History'!J1</f>
         <v>Hoàng vũ</v>
       </c>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="308"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="295"/>
     </row>
     <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="237"/>
@@ -10741,11 +10910,11 @@
       <c r="H2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="268" t="str">
+      <c r="I2" s="278" t="str">
         <f>'Update History'!D2</f>
-        <v>TM</v>
-      </c>
-      <c r="J2" s="268"/>
+        <v>OO</v>
+      </c>
+      <c r="J2" s="278"/>
       <c r="K2" s="61" t="s">
         <v>41</v>
       </c>
@@ -10763,12 +10932,12 @@
       <c r="O2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="307">
+      <c r="P2" s="294">
         <f>'Update History'!J2</f>
         <v>43026</v>
       </c>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="308"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="295"/>
     </row>
     <row r="4" spans="1:34" s="42" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
@@ -10829,7 +10998,7 @@
         <v>136</v>
       </c>
       <c r="F5" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G5" s="169" t="s">
         <v>153</v>
@@ -10840,12 +11009,12 @@
       <c r="I5" s="219" t="s">
         <v>154</v>
       </c>
-      <c r="J5" s="297" t="s">
-        <v>302</v>
-      </c>
-      <c r="K5" s="298"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="299"/>
+      <c r="J5" s="299" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="300"/>
+      <c r="L5" s="300"/>
+      <c r="M5" s="301"/>
       <c r="N5" s="220" t="s">
         <v>152</v>
       </c>
@@ -10876,7 +11045,7 @@
       <c r="AG5" s="73"/>
       <c r="AH5" s="73"/>
     </row>
-    <row r="6" spans="1:34" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="26" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="225"/>
       <c r="C6" s="115">
         <v>2</v>
@@ -10886,7 +11055,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="218" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G6" s="98" t="s">
         <v>153</v>
@@ -10897,26 +11066,26 @@
       <c r="I6" s="219" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="303" t="s">
-        <v>273</v>
-      </c>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
+      <c r="J6" s="305" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
       <c r="N6" s="226" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O6" s="226" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q6" s="26" t="s">
         <v>159</v>
       </c>
       <c r="R6" s="115" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="S6" s="227"/>
       <c r="T6" s="227"/>
@@ -10945,7 +11114,7 @@
         <v>136</v>
       </c>
       <c r="F7" s="98" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G7" s="169" t="s">
         <v>164</v>
@@ -10956,12 +11125,12 @@
       <c r="I7" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="304" t="s">
+      <c r="J7" s="306" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="305"/>
-      <c r="L7" s="305"/>
-      <c r="M7" s="306"/>
+      <c r="K7" s="307"/>
+      <c r="L7" s="307"/>
+      <c r="M7" s="308"/>
       <c r="N7" s="222" t="s">
         <v>167</v>
       </c>
@@ -10973,7 +11142,7 @@
         <v>156</v>
       </c>
       <c r="R7" s="218" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="S7" s="180"/>
       <c r="T7" s="180"/>
@@ -10992,7 +11161,7 @@
       <c r="AG7" s="181"/>
       <c r="AH7" s="181"/>
     </row>
-    <row r="8" spans="1:34" s="178" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="178" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="177"/>
       <c r="C8" s="115">
         <v>5</v>
@@ -11013,20 +11182,20 @@
       <c r="I8" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="294" t="s">
-        <v>274</v>
-      </c>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="296"/>
+      <c r="J8" s="296" t="s">
+        <v>294</v>
+      </c>
+      <c r="K8" s="297"/>
+      <c r="L8" s="297"/>
+      <c r="M8" s="298"/>
       <c r="N8" s="188" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O8" s="188" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="P8" s="218" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="221" t="s">
         <v>159</v>
@@ -11051,7 +11220,7 @@
       <c r="AG8" s="181"/>
       <c r="AH8" s="181"/>
     </row>
-    <row r="9" spans="1:34" s="178" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="178" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="177"/>
       <c r="C9" s="115">
         <v>6</v>
@@ -11061,10 +11230,10 @@
         <v>136</v>
       </c>
       <c r="F9" s="218" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G9" s="169" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H9" s="187" t="s">
         <v>162</v>
@@ -11072,26 +11241,26 @@
       <c r="I9" s="219" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="300" t="s">
-        <v>274</v>
-      </c>
-      <c r="K9" s="301"/>
-      <c r="L9" s="301"/>
-      <c r="M9" s="302"/>
+      <c r="J9" s="296" t="s">
+        <v>294</v>
+      </c>
+      <c r="K9" s="297"/>
+      <c r="L9" s="297"/>
+      <c r="M9" s="298"/>
       <c r="N9" s="188" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O9" s="188" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="P9" s="218" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q9" s="221" t="s">
         <v>159</v>
       </c>
       <c r="R9" s="218" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="S9" s="180"/>
       <c r="T9" s="180"/>
@@ -11120,10 +11289,10 @@
         <v>136</v>
       </c>
       <c r="F10" s="218" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G10" s="169" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H10" s="169" t="s">
         <v>47</v>
@@ -11131,26 +11300,26 @@
       <c r="I10" s="219" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="300" t="s">
-        <v>277</v>
-      </c>
-      <c r="K10" s="301"/>
-      <c r="L10" s="301"/>
-      <c r="M10" s="302"/>
+      <c r="J10" s="302" t="s">
+        <v>297</v>
+      </c>
+      <c r="K10" s="303"/>
+      <c r="L10" s="303"/>
+      <c r="M10" s="304"/>
       <c r="N10" s="229" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="O10" s="229" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="P10" s="218" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="230" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="R10" s="218" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="S10" s="180"/>
       <c r="T10" s="180"/>
@@ -11179,7 +11348,7 @@
         <v>136</v>
       </c>
       <c r="F11" s="218" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G11" s="169" t="s">
         <v>153</v>
@@ -11190,14 +11359,14 @@
       <c r="I11" s="219" t="s">
         <v>165</v>
       </c>
-      <c r="J11" s="300" t="s">
-        <v>268</v>
-      </c>
-      <c r="K11" s="301"/>
-      <c r="L11" s="301"/>
-      <c r="M11" s="302"/>
+      <c r="J11" s="302" t="s">
+        <v>259</v>
+      </c>
+      <c r="K11" s="303"/>
+      <c r="L11" s="303"/>
+      <c r="M11" s="304"/>
       <c r="N11" s="229" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O11" s="229" t="s">
         <v>168</v>
@@ -11207,7 +11376,7 @@
         <v>156</v>
       </c>
       <c r="R11" s="218" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="S11" s="180"/>
       <c r="T11" s="180"/>
@@ -11236,7 +11405,7 @@
         <v>136</v>
       </c>
       <c r="F12" s="218" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G12" s="187" t="s">
         <v>169</v>
@@ -11245,28 +11414,28 @@
         <v>162</v>
       </c>
       <c r="I12" s="219" t="s">
-        <v>294</v>
-      </c>
-      <c r="J12" s="294" t="s">
-        <v>292</v>
-      </c>
-      <c r="K12" s="295"/>
-      <c r="L12" s="295"/>
-      <c r="M12" s="296"/>
+        <v>279</v>
+      </c>
+      <c r="J12" s="296" t="s">
+        <v>298</v>
+      </c>
+      <c r="K12" s="297"/>
+      <c r="L12" s="297"/>
+      <c r="M12" s="298"/>
       <c r="N12" s="188" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O12" s="188" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P12" s="218" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q12" s="191" t="s">
         <v>159</v>
       </c>
       <c r="R12" s="218" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="S12" s="180"/>
       <c r="T12" s="180"/>
@@ -11295,7 +11464,7 @@
         <v>136</v>
       </c>
       <c r="F13" s="218" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="G13" s="187" t="s">
         <v>153</v>
@@ -11304,19 +11473,19 @@
         <v>162</v>
       </c>
       <c r="I13" s="219" t="s">
-        <v>297</v>
-      </c>
-      <c r="J13" s="297" t="s">
-        <v>298</v>
-      </c>
-      <c r="K13" s="298"/>
-      <c r="L13" s="298"/>
-      <c r="M13" s="299"/>
+        <v>281</v>
+      </c>
+      <c r="J13" s="299" t="s">
+        <v>300</v>
+      </c>
+      <c r="K13" s="300"/>
+      <c r="L13" s="300"/>
+      <c r="M13" s="301"/>
       <c r="N13" s="188" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="O13" s="188" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="P13" s="218"/>
       <c r="Q13" s="191"/>
@@ -12988,11 +13157,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J11:M11"/>
@@ -13003,19 +13167,24 @@
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="J9:M9"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048033:P1048576 P7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q7:Q9 Q12:Q13">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048033:P1048576 P7" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q7:Q9 Q12:Q13" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10:Q11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10:Q11" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"Load,Drapdrop,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G13" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H13" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13031,12 +13200,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView view="pageBreakPreview" zoomScale="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13071,7 +13240,7 @@
       </c>
       <c r="F1" s="31" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2022</v>
+        <v>OOF2112</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -13096,7 +13265,7 @@
       </c>
       <c r="D2" s="31" t="str">
         <f>'Update History'!D2</f>
-        <v>TM</v>
+        <v>OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
@@ -13152,7 +13321,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="35"/>
       <c r="B6" s="36" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="64"/>
@@ -13267,7 +13436,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="313" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="C15" s="314"/>
       <c r="D15" s="314"/>
@@ -13352,18 +13521,18 @@
     </row>
     <row r="22" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48"/>
-      <c r="B22" s="310" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="310"/>
-      <c r="D22" s="310"/>
-      <c r="E22" s="310"/>
-      <c r="F22" s="310"/>
-      <c r="G22" s="310"/>
-      <c r="H22" s="310"/>
-      <c r="I22" s="310"/>
-      <c r="J22" s="310"/>
-      <c r="K22" s="310"/>
+      <c r="B22" s="309" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="309"/>
+      <c r="D22" s="309"/>
+      <c r="E22" s="309"/>
+      <c r="F22" s="309"/>
+      <c r="G22" s="309"/>
+      <c r="H22" s="309"/>
+      <c r="I22" s="309"/>
+      <c r="J22" s="309"/>
+      <c r="K22" s="309"/>
     </row>
     <row r="23" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="48"/>
@@ -13487,57 +13656,57 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="48"/>
-      <c r="B33" s="310" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" s="310"/>
-      <c r="D33" s="310"/>
-      <c r="E33" s="310"/>
-      <c r="F33" s="310"/>
-      <c r="G33" s="310"/>
-      <c r="H33" s="310"/>
-      <c r="I33" s="310"/>
-      <c r="J33" s="310"/>
-      <c r="K33" s="310"/>
+      <c r="B33" s="309" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="309"/>
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="309"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="309"/>
+      <c r="J33" s="309"/>
+      <c r="K33" s="309"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="48"/>
-      <c r="B34" s="310"/>
-      <c r="C34" s="310"/>
-      <c r="D34" s="310"/>
-      <c r="E34" s="310"/>
-      <c r="F34" s="310"/>
-      <c r="G34" s="310"/>
-      <c r="H34" s="310"/>
-      <c r="I34" s="310"/>
-      <c r="J34" s="310"/>
-      <c r="K34" s="310"/>
+      <c r="B34" s="309"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="309"/>
+      <c r="E34" s="309"/>
+      <c r="F34" s="309"/>
+      <c r="G34" s="309"/>
+      <c r="H34" s="309"/>
+      <c r="I34" s="309"/>
+      <c r="J34" s="309"/>
+      <c r="K34" s="309"/>
     </row>
     <row r="35" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="48"/>
-      <c r="B35" s="310"/>
-      <c r="C35" s="310"/>
-      <c r="D35" s="310"/>
-      <c r="E35" s="310"/>
-      <c r="F35" s="310"/>
-      <c r="G35" s="310"/>
-      <c r="H35" s="310"/>
-      <c r="I35" s="310"/>
-      <c r="J35" s="310"/>
-      <c r="K35" s="310"/>
+      <c r="B35" s="309"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="309"/>
+      <c r="E35" s="309"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="309"/>
+      <c r="H35" s="309"/>
+      <c r="I35" s="309"/>
+      <c r="J35" s="309"/>
+      <c r="K35" s="309"/>
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="48"/>
-      <c r="B36" s="310" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="310"/>
-      <c r="D36" s="310"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="310"/>
-      <c r="I36" s="310"/>
+      <c r="B36" s="309" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="309"/>
+      <c r="D36" s="309"/>
+      <c r="E36" s="309"/>
+      <c r="F36" s="309"/>
+      <c r="G36" s="309"/>
+      <c r="H36" s="309"/>
+      <c r="I36" s="309"/>
       <c r="J36" s="36"/>
     </row>
     <row r="37" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -13662,125 +13831,125 @@
     </row>
     <row r="47" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="48"/>
-      <c r="B47" s="309" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="309"/>
-      <c r="D47" s="309"/>
-      <c r="E47" s="309"/>
-      <c r="F47" s="309"/>
-      <c r="G47" s="309"/>
-      <c r="H47" s="309"/>
-      <c r="I47" s="309"/>
-      <c r="J47" s="309"/>
-      <c r="K47" s="309"/>
+      <c r="B47" s="310" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="310"/>
+      <c r="D47" s="310"/>
+      <c r="E47" s="310"/>
+      <c r="F47" s="310"/>
+      <c r="G47" s="310"/>
+      <c r="H47" s="310"/>
+      <c r="I47" s="310"/>
+      <c r="J47" s="310"/>
+      <c r="K47" s="310"/>
     </row>
     <row r="48" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="48"/>
-      <c r="B48" s="309"/>
-      <c r="C48" s="309"/>
-      <c r="D48" s="309"/>
-      <c r="E48" s="309"/>
-      <c r="F48" s="309"/>
-      <c r="G48" s="309"/>
-      <c r="H48" s="309"/>
-      <c r="I48" s="309"/>
-      <c r="J48" s="309"/>
-      <c r="K48" s="309"/>
+      <c r="B48" s="310"/>
+      <c r="C48" s="310"/>
+      <c r="D48" s="310"/>
+      <c r="E48" s="310"/>
+      <c r="F48" s="310"/>
+      <c r="G48" s="310"/>
+      <c r="H48" s="310"/>
+      <c r="I48" s="310"/>
+      <c r="J48" s="310"/>
+      <c r="K48" s="310"/>
     </row>
     <row r="49" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="48"/>
-      <c r="B49" s="309" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" s="309"/>
-      <c r="D49" s="309"/>
-      <c r="E49" s="309"/>
-      <c r="F49" s="309"/>
-      <c r="G49" s="309"/>
-      <c r="H49" s="309"/>
-      <c r="I49" s="309"/>
-      <c r="J49" s="309"/>
-      <c r="K49" s="309"/>
+      <c r="B49" s="310" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="310"/>
+      <c r="D49" s="310"/>
+      <c r="E49" s="310"/>
+      <c r="F49" s="310"/>
+      <c r="G49" s="310"/>
+      <c r="H49" s="310"/>
+      <c r="I49" s="310"/>
+      <c r="J49" s="310"/>
+      <c r="K49" s="310"/>
     </row>
     <row r="50" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="48"/>
-      <c r="B50" s="309"/>
-      <c r="C50" s="309"/>
-      <c r="D50" s="309"/>
-      <c r="E50" s="309"/>
-      <c r="F50" s="309"/>
-      <c r="G50" s="309"/>
-      <c r="H50" s="309"/>
-      <c r="I50" s="309"/>
-      <c r="J50" s="309"/>
-      <c r="K50" s="309"/>
+      <c r="B50" s="310"/>
+      <c r="C50" s="310"/>
+      <c r="D50" s="310"/>
+      <c r="E50" s="310"/>
+      <c r="F50" s="310"/>
+      <c r="G50" s="310"/>
+      <c r="H50" s="310"/>
+      <c r="I50" s="310"/>
+      <c r="J50" s="310"/>
+      <c r="K50" s="310"/>
     </row>
     <row r="51" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="48"/>
-      <c r="B51" s="309" t="s">
-        <v>251</v>
-      </c>
-      <c r="C51" s="309"/>
-      <c r="D51" s="309"/>
-      <c r="E51" s="309"/>
-      <c r="F51" s="309"/>
-      <c r="G51" s="309"/>
-      <c r="H51" s="309"/>
-      <c r="I51" s="309"/>
-      <c r="J51" s="309"/>
-      <c r="K51" s="309"/>
+      <c r="B51" s="310" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="310"/>
+      <c r="D51" s="310"/>
+      <c r="E51" s="310"/>
+      <c r="F51" s="310"/>
+      <c r="G51" s="310"/>
+      <c r="H51" s="310"/>
+      <c r="I51" s="310"/>
+      <c r="J51" s="310"/>
+      <c r="K51" s="310"/>
     </row>
     <row r="52" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="48"/>
-      <c r="B52" s="309"/>
-      <c r="C52" s="309"/>
-      <c r="D52" s="309"/>
-      <c r="E52" s="309"/>
-      <c r="F52" s="309"/>
-      <c r="G52" s="309"/>
-      <c r="H52" s="309"/>
-      <c r="I52" s="309"/>
-      <c r="J52" s="309"/>
-      <c r="K52" s="309"/>
+      <c r="B52" s="310"/>
+      <c r="C52" s="310"/>
+      <c r="D52" s="310"/>
+      <c r="E52" s="310"/>
+      <c r="F52" s="310"/>
+      <c r="G52" s="310"/>
+      <c r="H52" s="310"/>
+      <c r="I52" s="310"/>
+      <c r="J52" s="310"/>
+      <c r="K52" s="310"/>
     </row>
     <row r="53" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="48"/>
-      <c r="B53" s="309" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" s="309"/>
-      <c r="D53" s="309"/>
-      <c r="E53" s="309"/>
-      <c r="F53" s="309"/>
-      <c r="G53" s="309"/>
-      <c r="H53" s="309"/>
-      <c r="I53" s="309"/>
-      <c r="J53" s="309"/>
-      <c r="K53" s="309"/>
+      <c r="B53" s="310" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="310"/>
+      <c r="D53" s="310"/>
+      <c r="E53" s="310"/>
+      <c r="F53" s="310"/>
+      <c r="G53" s="310"/>
+      <c r="H53" s="310"/>
+      <c r="I53" s="310"/>
+      <c r="J53" s="310"/>
+      <c r="K53" s="310"/>
     </row>
     <row r="54" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="48"/>
-      <c r="B54" s="309"/>
-      <c r="C54" s="309"/>
-      <c r="D54" s="309"/>
-      <c r="E54" s="309"/>
-      <c r="F54" s="309"/>
-      <c r="G54" s="309"/>
-      <c r="H54" s="309"/>
-      <c r="I54" s="309"/>
-      <c r="J54" s="309"/>
-      <c r="K54" s="309"/>
+      <c r="B54" s="310"/>
+      <c r="C54" s="310"/>
+      <c r="D54" s="310"/>
+      <c r="E54" s="310"/>
+      <c r="F54" s="310"/>
+      <c r="G54" s="310"/>
+      <c r="H54" s="310"/>
+      <c r="I54" s="310"/>
+      <c r="J54" s="310"/>
+      <c r="K54" s="310"/>
     </row>
     <row r="55" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
-      <c r="B55" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" s="309"/>
-      <c r="D55" s="309"/>
-      <c r="E55" s="309"/>
-      <c r="F55" s="309"/>
+      <c r="B55" s="310" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="310"/>
+      <c r="D55" s="310"/>
+      <c r="E55" s="310"/>
+      <c r="F55" s="310"/>
       <c r="G55" s="74"/>
       <c r="H55" s="74"/>
       <c r="I55" s="74"/>
@@ -13789,7 +13958,7 @@
     <row r="56" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="48"/>
       <c r="B56" s="64" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
@@ -13805,96 +13974,96 @@
     </row>
     <row r="58" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="48"/>
-      <c r="B58" s="309" t="s">
-        <v>300</v>
-      </c>
-      <c r="C58" s="309"/>
-      <c r="D58" s="309"/>
-      <c r="E58" s="309"/>
-      <c r="F58" s="309"/>
-      <c r="G58" s="309"/>
-      <c r="H58" s="309"/>
-      <c r="I58" s="309"/>
-      <c r="J58" s="309"/>
-      <c r="K58" s="309"/>
+      <c r="B58" s="310" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58" s="310"/>
+      <c r="D58" s="310"/>
+      <c r="E58" s="310"/>
+      <c r="F58" s="310"/>
+      <c r="G58" s="310"/>
+      <c r="H58" s="310"/>
+      <c r="I58" s="310"/>
+      <c r="J58" s="310"/>
+      <c r="K58" s="310"/>
     </row>
     <row r="59" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="48"/>
-      <c r="B59" s="309"/>
-      <c r="C59" s="309"/>
-      <c r="D59" s="309"/>
-      <c r="E59" s="309"/>
-      <c r="F59" s="309"/>
-      <c r="G59" s="309"/>
-      <c r="H59" s="309"/>
-      <c r="I59" s="309"/>
-      <c r="J59" s="309"/>
-      <c r="K59" s="309"/>
+      <c r="B59" s="310"/>
+      <c r="C59" s="310"/>
+      <c r="D59" s="310"/>
+      <c r="E59" s="310"/>
+      <c r="F59" s="310"/>
+      <c r="G59" s="310"/>
+      <c r="H59" s="310"/>
+      <c r="I59" s="310"/>
+      <c r="J59" s="310"/>
+      <c r="K59" s="310"/>
     </row>
     <row r="60" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="48"/>
-      <c r="B60" s="309"/>
-      <c r="C60" s="309"/>
-      <c r="D60" s="309"/>
-      <c r="E60" s="309"/>
-      <c r="F60" s="309"/>
-      <c r="G60" s="309"/>
-      <c r="H60" s="309"/>
-      <c r="I60" s="309"/>
-      <c r="J60" s="309"/>
-      <c r="K60" s="309"/>
+      <c r="B60" s="310"/>
+      <c r="C60" s="310"/>
+      <c r="D60" s="310"/>
+      <c r="E60" s="310"/>
+      <c r="F60" s="310"/>
+      <c r="G60" s="310"/>
+      <c r="H60" s="310"/>
+      <c r="I60" s="310"/>
+      <c r="J60" s="310"/>
+      <c r="K60" s="310"/>
     </row>
     <row r="61" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="48"/>
-      <c r="B61" s="309"/>
-      <c r="C61" s="309"/>
-      <c r="D61" s="309"/>
-      <c r="E61" s="309"/>
-      <c r="F61" s="309"/>
-      <c r="G61" s="309"/>
-      <c r="H61" s="309"/>
-      <c r="I61" s="309"/>
-      <c r="J61" s="309"/>
-      <c r="K61" s="309"/>
+      <c r="B61" s="310"/>
+      <c r="C61" s="310"/>
+      <c r="D61" s="310"/>
+      <c r="E61" s="310"/>
+      <c r="F61" s="310"/>
+      <c r="G61" s="310"/>
+      <c r="H61" s="310"/>
+      <c r="I61" s="310"/>
+      <c r="J61" s="310"/>
+      <c r="K61" s="310"/>
     </row>
     <row r="62" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="48"/>
-      <c r="B62" s="309"/>
-      <c r="C62" s="309"/>
-      <c r="D62" s="309"/>
-      <c r="E62" s="309"/>
-      <c r="F62" s="309"/>
-      <c r="G62" s="309"/>
-      <c r="H62" s="309"/>
-      <c r="I62" s="309"/>
-      <c r="J62" s="309"/>
-      <c r="K62" s="309"/>
+      <c r="B62" s="310"/>
+      <c r="C62" s="310"/>
+      <c r="D62" s="310"/>
+      <c r="E62" s="310"/>
+      <c r="F62" s="310"/>
+      <c r="G62" s="310"/>
+      <c r="H62" s="310"/>
+      <c r="I62" s="310"/>
+      <c r="J62" s="310"/>
+      <c r="K62" s="310"/>
     </row>
     <row r="63" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="48"/>
-      <c r="B63" s="309"/>
-      <c r="C63" s="309"/>
-      <c r="D63" s="309"/>
-      <c r="E63" s="309"/>
-      <c r="F63" s="309"/>
-      <c r="G63" s="309"/>
-      <c r="H63" s="309"/>
-      <c r="I63" s="309"/>
-      <c r="J63" s="309"/>
-      <c r="K63" s="309"/>
+      <c r="B63" s="310"/>
+      <c r="C63" s="310"/>
+      <c r="D63" s="310"/>
+      <c r="E63" s="310"/>
+      <c r="F63" s="310"/>
+      <c r="G63" s="310"/>
+      <c r="H63" s="310"/>
+      <c r="I63" s="310"/>
+      <c r="J63" s="310"/>
+      <c r="K63" s="310"/>
     </row>
     <row r="64" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="48"/>
-      <c r="B64" s="309"/>
-      <c r="C64" s="309"/>
-      <c r="D64" s="309"/>
-      <c r="E64" s="309"/>
-      <c r="F64" s="309"/>
-      <c r="G64" s="309"/>
-      <c r="H64" s="309"/>
-      <c r="I64" s="309"/>
-      <c r="J64" s="309"/>
-      <c r="K64" s="309"/>
+      <c r="B64" s="310"/>
+      <c r="C64" s="310"/>
+      <c r="D64" s="310"/>
+      <c r="E64" s="310"/>
+      <c r="F64" s="310"/>
+      <c r="G64" s="310"/>
+      <c r="H64" s="310"/>
+      <c r="I64" s="310"/>
+      <c r="J64" s="310"/>
+      <c r="K64" s="310"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="48"/>
@@ -13966,7 +14135,7 @@
     </row>
     <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="50" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C74" s="93"/>
       <c r="D74" s="92"/>
@@ -13982,7 +14151,7 @@
     </row>
     <row r="76" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="50" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C76" s="89"/>
       <c r="D76" s="78"/>
@@ -14007,7 +14176,7 @@
     </row>
     <row r="79" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="50" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C79" s="64"/>
       <c r="D79" s="78"/>
@@ -14023,7 +14192,7 @@
     </row>
     <row r="81" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="50" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C81" s="50"/>
       <c r="D81" s="36"/>
@@ -14038,6 +14207,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B58:K64"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B49:K50"/>
+    <mergeCell ref="B51:K52"/>
+    <mergeCell ref="B53:K54"/>
     <mergeCell ref="B33:K35"/>
     <mergeCell ref="B47:K48"/>
     <mergeCell ref="B22:K22"/>
@@ -14046,11 +14220,6 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B15:J16"/>
-    <mergeCell ref="B58:K64"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B49:K50"/>
-    <mergeCell ref="B51:K52"/>
-    <mergeCell ref="B53:K54"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
@@ -14065,7 +14234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:N58"/>
   <sheetViews>
@@ -14107,7 +14276,7 @@
       </c>
       <c r="F1" s="31" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2022</v>
+        <v>OOF2112</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -14132,7 +14301,7 @@
       </c>
       <c r="D2" s="31" t="str">
         <f>'Update History'!D2</f>
-        <v>TM</v>
+        <v>OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
@@ -14282,11 +14451,11 @@
       <c r="A12" s="35"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="315"/>
-      <c r="H12" s="315"/>
+      <c r="D12" s="336"/>
+      <c r="E12" s="336"/>
+      <c r="F12" s="336"/>
+      <c r="G12" s="336"/>
+      <c r="H12" s="336"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="68"/>
@@ -14298,12 +14467,12 @@
       <c r="A13" s="35"/>
       <c r="B13" s="74"/>
       <c r="C13" s="68"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="310"/>
-      <c r="G13" s="310"/>
-      <c r="H13" s="310"/>
-      <c r="I13" s="310"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
@@ -14314,11 +14483,11 @@
       <c r="A14" s="35"/>
       <c r="B14" s="74"/>
       <c r="C14" s="68"/>
-      <c r="D14" s="310"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="310"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="310"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="309"/>
+      <c r="H14" s="309"/>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="68"/>
@@ -14382,8 +14551,8 @@
       <c r="E18" s="106"/>
       <c r="F18" s="105"/>
       <c r="G18" s="106"/>
-      <c r="H18" s="316"/>
-      <c r="I18" s="316"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="330"/>
       <c r="J18" s="107"/>
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
@@ -14398,8 +14567,8 @@
       <c r="E19" s="109"/>
       <c r="F19" s="108"/>
       <c r="G19" s="110"/>
-      <c r="H19" s="317"/>
-      <c r="I19" s="318"/>
+      <c r="H19" s="331"/>
+      <c r="I19" s="332"/>
       <c r="J19" s="107"/>
       <c r="K19" s="102"/>
       <c r="L19" s="102"/>
@@ -14411,11 +14580,11 @@
       <c r="B20" s="100"/>
       <c r="C20" s="108"/>
       <c r="D20" s="105"/>
-      <c r="E20" s="316"/>
+      <c r="E20" s="330"/>
       <c r="F20" s="111"/>
-      <c r="G20" s="319"/>
-      <c r="H20" s="316"/>
-      <c r="I20" s="316"/>
+      <c r="G20" s="333"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="330"/>
       <c r="J20" s="107"/>
       <c r="K20" s="102"/>
       <c r="L20" s="102"/>
@@ -14427,11 +14596,11 @@
       <c r="B21" s="100"/>
       <c r="C21" s="108"/>
       <c r="D21" s="105"/>
-      <c r="E21" s="316"/>
+      <c r="E21" s="330"/>
       <c r="F21" s="112"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="316"/>
-      <c r="I21" s="316"/>
+      <c r="G21" s="334"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
       <c r="J21" s="107"/>
       <c r="K21" s="102"/>
       <c r="L21" s="102"/>
@@ -14443,11 +14612,11 @@
       <c r="B22" s="100"/>
       <c r="C22" s="108"/>
       <c r="D22" s="105"/>
-      <c r="E22" s="316"/>
+      <c r="E22" s="330"/>
       <c r="F22" s="111"/>
-      <c r="G22" s="321"/>
-      <c r="H22" s="316"/>
-      <c r="I22" s="316"/>
+      <c r="G22" s="335"/>
+      <c r="H22" s="330"/>
+      <c r="I22" s="330"/>
       <c r="J22" s="107"/>
       <c r="K22" s="102"/>
       <c r="L22" s="102"/>
@@ -14459,11 +14628,11 @@
       <c r="B23" s="100"/>
       <c r="C23" s="108"/>
       <c r="D23" s="105"/>
-      <c r="E23" s="322"/>
+      <c r="E23" s="315"/>
       <c r="F23" s="111"/>
-      <c r="G23" s="324"/>
-      <c r="H23" s="327"/>
-      <c r="I23" s="328"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="320"/>
+      <c r="I23" s="321"/>
       <c r="J23" s="107"/>
       <c r="K23" s="102"/>
       <c r="L23" s="102"/>
@@ -14475,11 +14644,11 @@
       <c r="B24" s="100"/>
       <c r="C24" s="108"/>
       <c r="D24" s="105"/>
-      <c r="E24" s="323"/>
+      <c r="E24" s="316"/>
       <c r="F24" s="111"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="329"/>
-      <c r="I24" s="330"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="322"/>
+      <c r="I24" s="323"/>
       <c r="J24" s="107"/>
       <c r="K24" s="102"/>
       <c r="L24" s="102"/>
@@ -14491,11 +14660,11 @@
       <c r="B25" s="100"/>
       <c r="C25" s="108"/>
       <c r="D25" s="105"/>
-      <c r="E25" s="323"/>
+      <c r="E25" s="316"/>
       <c r="F25" s="111"/>
-      <c r="G25" s="325"/>
-      <c r="H25" s="329"/>
-      <c r="I25" s="330"/>
+      <c r="G25" s="318"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="323"/>
       <c r="J25" s="107"/>
       <c r="K25" s="102"/>
       <c r="L25" s="102"/>
@@ -14507,11 +14676,11 @@
       <c r="B26" s="100"/>
       <c r="C26" s="108"/>
       <c r="D26" s="105"/>
-      <c r="E26" s="333"/>
+      <c r="E26" s="326"/>
       <c r="F26" s="112"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="329"/>
-      <c r="I26" s="330"/>
+      <c r="G26" s="318"/>
+      <c r="H26" s="322"/>
+      <c r="I26" s="323"/>
       <c r="J26" s="107"/>
       <c r="K26" s="102"/>
       <c r="L26" s="102"/>
@@ -14523,11 +14692,11 @@
       <c r="B27" s="100"/>
       <c r="C27" s="108"/>
       <c r="D27" s="105"/>
-      <c r="E27" s="333"/>
+      <c r="E27" s="326"/>
       <c r="F27" s="111"/>
-      <c r="G27" s="325"/>
-      <c r="H27" s="329"/>
-      <c r="I27" s="330"/>
+      <c r="G27" s="318"/>
+      <c r="H27" s="322"/>
+      <c r="I27" s="323"/>
       <c r="J27" s="107"/>
       <c r="K27" s="102"/>
       <c r="L27" s="102"/>
@@ -14539,11 +14708,11 @@
       <c r="B28" s="100"/>
       <c r="C28" s="108"/>
       <c r="D28" s="105"/>
-      <c r="E28" s="333"/>
+      <c r="E28" s="326"/>
       <c r="F28" s="111"/>
-      <c r="G28" s="325"/>
-      <c r="H28" s="329"/>
-      <c r="I28" s="330"/>
+      <c r="G28" s="318"/>
+      <c r="H28" s="322"/>
+      <c r="I28" s="323"/>
       <c r="J28" s="107"/>
       <c r="K28" s="102"/>
       <c r="L28" s="102"/>
@@ -14555,11 +14724,11 @@
       <c r="B29" s="100"/>
       <c r="C29" s="108"/>
       <c r="D29" s="105"/>
-      <c r="E29" s="333"/>
+      <c r="E29" s="326"/>
       <c r="F29" s="111"/>
-      <c r="G29" s="326"/>
-      <c r="H29" s="329"/>
-      <c r="I29" s="330"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="322"/>
+      <c r="I29" s="323"/>
       <c r="J29" s="107"/>
       <c r="K29" s="102"/>
       <c r="L29" s="102"/>
@@ -14571,11 +14740,11 @@
       <c r="B30" s="100"/>
       <c r="C30" s="108"/>
       <c r="D30" s="105"/>
-      <c r="E30" s="334"/>
+      <c r="E30" s="327"/>
       <c r="F30" s="111"/>
-      <c r="G30" s="324"/>
-      <c r="H30" s="329"/>
-      <c r="I30" s="330"/>
+      <c r="G30" s="317"/>
+      <c r="H30" s="322"/>
+      <c r="I30" s="323"/>
       <c r="J30" s="107"/>
       <c r="K30" s="102"/>
       <c r="L30" s="102"/>
@@ -14587,11 +14756,11 @@
       <c r="B31" s="100"/>
       <c r="C31" s="108"/>
       <c r="D31" s="105"/>
-      <c r="E31" s="333"/>
+      <c r="E31" s="326"/>
       <c r="F31" s="111"/>
-      <c r="G31" s="325"/>
-      <c r="H31" s="329"/>
-      <c r="I31" s="330"/>
+      <c r="G31" s="318"/>
+      <c r="H31" s="322"/>
+      <c r="I31" s="323"/>
       <c r="J31" s="107"/>
       <c r="K31" s="102"/>
       <c r="L31" s="102"/>
@@ -14603,11 +14772,11 @@
       <c r="B32" s="100"/>
       <c r="C32" s="108"/>
       <c r="D32" s="105"/>
-      <c r="E32" s="333"/>
+      <c r="E32" s="326"/>
       <c r="F32" s="111"/>
-      <c r="G32" s="325"/>
-      <c r="H32" s="329"/>
-      <c r="I32" s="330"/>
+      <c r="G32" s="318"/>
+      <c r="H32" s="322"/>
+      <c r="I32" s="323"/>
       <c r="J32" s="107"/>
       <c r="K32" s="102"/>
       <c r="L32" s="102"/>
@@ -14619,11 +14788,11 @@
       <c r="B33" s="100"/>
       <c r="C33" s="108"/>
       <c r="D33" s="105"/>
-      <c r="E33" s="333"/>
+      <c r="E33" s="326"/>
       <c r="F33" s="112"/>
-      <c r="G33" s="325"/>
-      <c r="H33" s="329"/>
-      <c r="I33" s="330"/>
+      <c r="G33" s="318"/>
+      <c r="H33" s="322"/>
+      <c r="I33" s="323"/>
       <c r="J33" s="107"/>
       <c r="K33" s="102"/>
       <c r="L33" s="102"/>
@@ -14635,11 +14804,11 @@
       <c r="B34" s="100"/>
       <c r="C34" s="108"/>
       <c r="D34" s="105"/>
-      <c r="E34" s="333"/>
+      <c r="E34" s="326"/>
       <c r="F34" s="111"/>
-      <c r="G34" s="325"/>
-      <c r="H34" s="329"/>
-      <c r="I34" s="330"/>
+      <c r="G34" s="318"/>
+      <c r="H34" s="322"/>
+      <c r="I34" s="323"/>
       <c r="J34" s="107"/>
       <c r="K34" s="102"/>
       <c r="L34" s="102"/>
@@ -14651,11 +14820,11 @@
       <c r="B35" s="100"/>
       <c r="C35" s="108"/>
       <c r="D35" s="105"/>
-      <c r="E35" s="333"/>
+      <c r="E35" s="326"/>
       <c r="F35" s="111"/>
-      <c r="G35" s="325"/>
-      <c r="H35" s="329"/>
-      <c r="I35" s="330"/>
+      <c r="G35" s="318"/>
+      <c r="H35" s="322"/>
+      <c r="I35" s="323"/>
       <c r="J35" s="107"/>
       <c r="K35" s="102"/>
       <c r="L35" s="102"/>
@@ -14667,11 +14836,11 @@
       <c r="B36" s="100"/>
       <c r="C36" s="108"/>
       <c r="D36" s="105"/>
-      <c r="E36" s="333"/>
+      <c r="E36" s="326"/>
       <c r="F36" s="111"/>
-      <c r="G36" s="326"/>
-      <c r="H36" s="329"/>
-      <c r="I36" s="330"/>
+      <c r="G36" s="319"/>
+      <c r="H36" s="322"/>
+      <c r="I36" s="323"/>
       <c r="J36" s="107"/>
       <c r="K36" s="102"/>
       <c r="L36" s="102"/>
@@ -14683,11 +14852,11 @@
       <c r="B37" s="100"/>
       <c r="C37" s="108"/>
       <c r="D37" s="105"/>
-      <c r="E37" s="334"/>
+      <c r="E37" s="327"/>
       <c r="F37" s="111"/>
-      <c r="G37" s="324"/>
-      <c r="H37" s="329"/>
-      <c r="I37" s="330"/>
+      <c r="G37" s="317"/>
+      <c r="H37" s="322"/>
+      <c r="I37" s="323"/>
       <c r="J37" s="107"/>
       <c r="K37" s="102"/>
       <c r="L37" s="102"/>
@@ -14699,11 +14868,11 @@
       <c r="B38" s="100"/>
       <c r="C38" s="108"/>
       <c r="D38" s="105"/>
-      <c r="E38" s="333"/>
+      <c r="E38" s="326"/>
       <c r="F38" s="111"/>
-      <c r="G38" s="325"/>
-      <c r="H38" s="329"/>
-      <c r="I38" s="330"/>
+      <c r="G38" s="318"/>
+      <c r="H38" s="322"/>
+      <c r="I38" s="323"/>
       <c r="J38" s="107"/>
       <c r="K38" s="102"/>
       <c r="L38" s="102"/>
@@ -14715,11 +14884,11 @@
       <c r="B39" s="100"/>
       <c r="C39" s="108"/>
       <c r="D39" s="105"/>
-      <c r="E39" s="333"/>
+      <c r="E39" s="326"/>
       <c r="F39" s="111"/>
-      <c r="G39" s="325"/>
-      <c r="H39" s="329"/>
-      <c r="I39" s="330"/>
+      <c r="G39" s="318"/>
+      <c r="H39" s="322"/>
+      <c r="I39" s="323"/>
       <c r="J39" s="107"/>
       <c r="K39" s="102"/>
       <c r="L39" s="102"/>
@@ -14731,11 +14900,11 @@
       <c r="B40" s="100"/>
       <c r="C40" s="108"/>
       <c r="D40" s="105"/>
-      <c r="E40" s="333"/>
+      <c r="E40" s="326"/>
       <c r="F40" s="112"/>
-      <c r="G40" s="325"/>
-      <c r="H40" s="329"/>
-      <c r="I40" s="330"/>
+      <c r="G40" s="318"/>
+      <c r="H40" s="322"/>
+      <c r="I40" s="323"/>
       <c r="J40" s="107"/>
       <c r="K40" s="102"/>
       <c r="L40" s="102"/>
@@ -14747,11 +14916,11 @@
       <c r="B41" s="100"/>
       <c r="C41" s="108"/>
       <c r="D41" s="105"/>
-      <c r="E41" s="333"/>
+      <c r="E41" s="326"/>
       <c r="F41" s="111"/>
-      <c r="G41" s="325"/>
-      <c r="H41" s="329"/>
-      <c r="I41" s="330"/>
+      <c r="G41" s="318"/>
+      <c r="H41" s="322"/>
+      <c r="I41" s="323"/>
       <c r="J41" s="107"/>
       <c r="K41" s="102"/>
       <c r="L41" s="102"/>
@@ -14763,11 +14932,11 @@
       <c r="B42" s="100"/>
       <c r="C42" s="108"/>
       <c r="D42" s="105"/>
-      <c r="E42" s="333"/>
+      <c r="E42" s="326"/>
       <c r="F42" s="111"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="329"/>
-      <c r="I42" s="330"/>
+      <c r="G42" s="318"/>
+      <c r="H42" s="322"/>
+      <c r="I42" s="323"/>
       <c r="J42" s="107"/>
       <c r="K42" s="102"/>
       <c r="L42" s="102"/>
@@ -14779,11 +14948,11 @@
       <c r="B43" s="100"/>
       <c r="C43" s="108"/>
       <c r="D43" s="105"/>
-      <c r="E43" s="333"/>
+      <c r="E43" s="326"/>
       <c r="F43" s="111"/>
-      <c r="G43" s="325"/>
-      <c r="H43" s="329"/>
-      <c r="I43" s="330"/>
+      <c r="G43" s="318"/>
+      <c r="H43" s="322"/>
+      <c r="I43" s="323"/>
       <c r="J43" s="107"/>
       <c r="K43" s="102"/>
       <c r="L43" s="102"/>
@@ -14795,11 +14964,11 @@
       <c r="B44" s="100"/>
       <c r="C44" s="108"/>
       <c r="D44" s="105"/>
-      <c r="E44" s="333"/>
+      <c r="E44" s="326"/>
       <c r="F44" s="111"/>
-      <c r="G44" s="326"/>
-      <c r="H44" s="329"/>
-      <c r="I44" s="330"/>
+      <c r="G44" s="319"/>
+      <c r="H44" s="322"/>
+      <c r="I44" s="323"/>
       <c r="J44" s="107"/>
       <c r="K44" s="102"/>
       <c r="L44" s="102"/>
@@ -14811,11 +14980,11 @@
       <c r="B45" s="100"/>
       <c r="C45" s="108"/>
       <c r="D45" s="105"/>
-      <c r="E45" s="334"/>
+      <c r="E45" s="327"/>
       <c r="F45" s="111"/>
-      <c r="G45" s="324"/>
-      <c r="H45" s="329"/>
-      <c r="I45" s="330"/>
+      <c r="G45" s="317"/>
+      <c r="H45" s="322"/>
+      <c r="I45" s="323"/>
       <c r="J45" s="107"/>
       <c r="K45" s="102"/>
       <c r="L45" s="102"/>
@@ -14827,11 +14996,11 @@
       <c r="B46" s="100"/>
       <c r="C46" s="108"/>
       <c r="D46" s="105"/>
-      <c r="E46" s="333"/>
+      <c r="E46" s="326"/>
       <c r="F46" s="111"/>
-      <c r="G46" s="325"/>
-      <c r="H46" s="329"/>
-      <c r="I46" s="330"/>
+      <c r="G46" s="318"/>
+      <c r="H46" s="322"/>
+      <c r="I46" s="323"/>
       <c r="J46" s="107"/>
       <c r="K46" s="102"/>
       <c r="L46" s="102"/>
@@ -14843,11 +15012,11 @@
       <c r="B47" s="100"/>
       <c r="C47" s="108"/>
       <c r="D47" s="105"/>
-      <c r="E47" s="335"/>
+      <c r="E47" s="328"/>
       <c r="F47" s="111"/>
-      <c r="G47" s="325"/>
-      <c r="H47" s="329"/>
-      <c r="I47" s="330"/>
+      <c r="G47" s="318"/>
+      <c r="H47" s="322"/>
+      <c r="I47" s="323"/>
       <c r="J47" s="107"/>
       <c r="K47" s="102"/>
       <c r="L47" s="102"/>
@@ -14859,11 +15028,11 @@
       <c r="B48" s="100"/>
       <c r="C48" s="108"/>
       <c r="D48" s="105"/>
-      <c r="E48" s="336"/>
+      <c r="E48" s="329"/>
       <c r="F48" s="112"/>
-      <c r="G48" s="325"/>
-      <c r="H48" s="329"/>
-      <c r="I48" s="330"/>
+      <c r="G48" s="318"/>
+      <c r="H48" s="322"/>
+      <c r="I48" s="323"/>
       <c r="J48" s="107"/>
       <c r="K48" s="102"/>
       <c r="L48" s="102"/>
@@ -14875,11 +15044,11 @@
       <c r="B49" s="100"/>
       <c r="C49" s="108"/>
       <c r="D49" s="105"/>
-      <c r="E49" s="336"/>
+      <c r="E49" s="329"/>
       <c r="F49" s="111"/>
-      <c r="G49" s="325"/>
-      <c r="H49" s="329"/>
-      <c r="I49" s="330"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="322"/>
+      <c r="I49" s="323"/>
       <c r="J49" s="107"/>
       <c r="K49" s="102"/>
       <c r="L49" s="102"/>
@@ -14891,11 +15060,11 @@
       <c r="B50" s="100"/>
       <c r="C50" s="108"/>
       <c r="D50" s="105"/>
-      <c r="E50" s="336"/>
+      <c r="E50" s="329"/>
       <c r="F50" s="111"/>
-      <c r="G50" s="325"/>
-      <c r="H50" s="329"/>
-      <c r="I50" s="330"/>
+      <c r="G50" s="318"/>
+      <c r="H50" s="322"/>
+      <c r="I50" s="323"/>
       <c r="J50" s="107"/>
       <c r="K50" s="102"/>
       <c r="L50" s="102"/>
@@ -14907,11 +15076,11 @@
       <c r="B51" s="100"/>
       <c r="C51" s="108"/>
       <c r="D51" s="105"/>
-      <c r="E51" s="336"/>
+      <c r="E51" s="329"/>
       <c r="F51" s="111"/>
-      <c r="G51" s="326"/>
-      <c r="H51" s="331"/>
-      <c r="I51" s="332"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="324"/>
+      <c r="I51" s="325"/>
       <c r="J51" s="107"/>
       <c r="K51" s="102"/>
       <c r="L51" s="102"/>
@@ -15032,6 +15201,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:I22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="G23:G29"/>
     <mergeCell ref="H23:I51"/>
@@ -15045,16 +15224,6 @@
     <mergeCell ref="G37:G44"/>
     <mergeCell ref="E39:E44"/>
     <mergeCell ref="E47:E51"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:I22"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D13:I13"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
@@ -15068,7 +15237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:G62"/>
   <sheetViews>
@@ -15171,7 +15340,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>28</v>
@@ -15182,10 +15351,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -15193,10 +15362,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -15204,7 +15373,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>28</v>
@@ -15215,7 +15384,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>28</v>
@@ -15226,10 +15395,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -15237,10 +15406,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -15251,7 +15420,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -15262,7 +15431,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -15273,7 +15442,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:7" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
